--- a/后端详细参数和解析格式.xlsx
+++ b/后端详细参数和解析格式.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="133">
   <si>
     <t xml:space="preserve">UserLogin</t>
   </si>
@@ -358,10 +358,13 @@
     <t xml:space="preserve">发送失败，请重试！</t>
   </si>
   <si>
+    <t xml:space="preserve">DownloadFiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E00001</t>
+  </si>
+  <si>
     <t xml:space="preserve">QueryHistory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E00001</t>
   </si>
   <si>
     <t xml:space="preserve">int IsFile</t>
@@ -427,7 +430,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Noto Sans CJK SC"/>
@@ -463,8 +466,14 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Noto Sans CJK SC"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -509,7 +518,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -530,7 +539,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -551,10 +572,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T324"/>
+  <dimension ref="A1:T327"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B76" activeCellId="0" sqref="B76"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A69" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A76" activeCellId="0" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -562,7 +583,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="22.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.78"/>
@@ -2508,10 +2529,10 @@
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
-      <c r="G71" s="2" t="s">
+      <c r="G71" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="H71" s="2"/>
+      <c r="H71" s="5"/>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
@@ -2640,7 +2661,7 @@
       <c r="T75" s="2"/>
     </row>
     <row r="76" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="6" t="s">
         <v>112</v>
       </c>
       <c r="B76" s="2" t="s">
@@ -2665,28 +2686,16 @@
       <c r="S76" s="2"/>
       <c r="T76" s="2"/>
     </row>
-    <row r="77" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>115</v>
-      </c>
+    <row r="77" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="2"/>
+      <c r="B77" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
@@ -2701,18 +2710,14 @@
       <c r="S77" s="2"/>
       <c r="T77" s="2"/>
     </row>
-    <row r="78" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
-      <c r="F78" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
@@ -2729,17 +2734,13 @@
     </row>
     <row r="79" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D79" s="2" t="n">
-        <v>1</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
@@ -2757,18 +2758,28 @@
       <c r="S79" s="2"/>
       <c r="T79" s="2"/>
     </row>
-    <row r="80" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="2"/>
+    <row r="80" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="B80" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
@@ -2783,22 +2794,18 @@
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
     </row>
-    <row r="81" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
-      <c r="C81" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D81" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
@@ -2814,15 +2821,19 @@
       <c r="T81" s="2"/>
     </row>
     <row r="82" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="A82" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
@@ -2839,11 +2850,15 @@
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="4"/>
+      <c r="B83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
@@ -2862,18 +2877,20 @@
       <c r="T83" s="2"/>
     </row>
     <row r="84" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="2" t="s">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D84" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F84" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
@@ -2890,24 +2907,16 @@
       <c r="T84" s="2"/>
     </row>
     <row r="85" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="E85" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>126</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
@@ -2923,19 +2932,11 @@
       <c r="S85" s="2"/>
       <c r="T85" s="2"/>
     </row>
-    <row r="86" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C86" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>111</v>
-      </c>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="4"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
@@ -2954,12 +2955,14 @@
       <c r="T86" s="2"/>
     </row>
     <row r="87" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="2"/>
+      <c r="A87" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="B87" s="2" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -2979,13 +2982,25 @@
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
+    <row r="88" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
@@ -3003,15 +3018,17 @@
     </row>
     <row r="89" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
-        <v>127</v>
+        <v>6</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D89" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="C89" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
@@ -3030,13 +3047,13 @@
       <c r="T89" s="2"/>
     </row>
     <row r="90" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A90" s="2"/>
       <c r="B90" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C90" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
@@ -3055,13 +3072,9 @@
       <c r="S90" s="2"/>
       <c r="T90" s="2"/>
     </row>
-    <row r="91" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>7</v>
-      </c>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -3082,11 +3095,15 @@
       <c r="T91" s="2"/>
     </row>
     <row r="92" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="2"/>
+      <c r="A92" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="B92" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C92" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
@@ -3105,9 +3122,13 @@
       <c r="S92" s="2"/>
       <c r="T92" s="2"/>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
+    <row r="93" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -3129,10 +3150,10 @@
     </row>
     <row r="94" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
-        <v>129</v>
+        <v>6</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>130</v>
+        <v>7</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -3154,11 +3175,9 @@
       <c r="T94" s="2"/>
     </row>
     <row r="95" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A95" s="2"/>
       <c r="B95" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -3179,13 +3198,9 @@
       <c r="S95" s="2"/>
       <c r="T95" s="2"/>
     </row>
-    <row r="96" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>131</v>
-      </c>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -3205,9 +3220,13 @@
       <c r="S96" s="2"/>
       <c r="T96" s="2"/>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
+    <row r="97" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -3227,9 +3246,13 @@
       <c r="S97" s="2"/>
       <c r="T97" s="2"/>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
+    <row r="98" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -3249,9 +3272,13 @@
       <c r="S98" s="2"/>
       <c r="T98" s="2"/>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
+    <row r="99" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -8221,6 +8248,72 @@
       <c r="S324" s="2"/>
       <c r="T324" s="2"/>
     </row>
+    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="2"/>
+      <c r="B325" s="2"/>
+      <c r="C325" s="2"/>
+      <c r="D325" s="2"/>
+      <c r="E325" s="2"/>
+      <c r="F325" s="2"/>
+      <c r="G325" s="2"/>
+      <c r="H325" s="2"/>
+      <c r="I325" s="2"/>
+      <c r="J325" s="2"/>
+      <c r="K325" s="2"/>
+      <c r="L325" s="2"/>
+      <c r="M325" s="2"/>
+      <c r="N325" s="2"/>
+      <c r="O325" s="2"/>
+      <c r="P325" s="2"/>
+      <c r="Q325" s="2"/>
+      <c r="R325" s="2"/>
+      <c r="S325" s="2"/>
+      <c r="T325" s="2"/>
+    </row>
+    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="2"/>
+      <c r="B326" s="2"/>
+      <c r="C326" s="2"/>
+      <c r="D326" s="2"/>
+      <c r="E326" s="2"/>
+      <c r="F326" s="2"/>
+      <c r="G326" s="2"/>
+      <c r="H326" s="2"/>
+      <c r="I326" s="2"/>
+      <c r="J326" s="2"/>
+      <c r="K326" s="2"/>
+      <c r="L326" s="2"/>
+      <c r="M326" s="2"/>
+      <c r="N326" s="2"/>
+      <c r="O326" s="2"/>
+      <c r="P326" s="2"/>
+      <c r="Q326" s="2"/>
+      <c r="R326" s="2"/>
+      <c r="S326" s="2"/>
+      <c r="T326" s="2"/>
+    </row>
+    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="2"/>
+      <c r="B327" s="2"/>
+      <c r="C327" s="2"/>
+      <c r="D327" s="2"/>
+      <c r="E327" s="2"/>
+      <c r="F327" s="2"/>
+      <c r="G327" s="2"/>
+      <c r="H327" s="2"/>
+      <c r="I327" s="2"/>
+      <c r="J327" s="2"/>
+      <c r="K327" s="2"/>
+      <c r="L327" s="2"/>
+      <c r="M327" s="2"/>
+      <c r="N327" s="2"/>
+      <c r="O327" s="2"/>
+      <c r="P327" s="2"/>
+      <c r="Q327" s="2"/>
+      <c r="R327" s="2"/>
+      <c r="S327" s="2"/>
+      <c r="T327" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G71:H71"/>

--- a/后端详细参数和解析格式.xlsx
+++ b/后端详细参数和解析格式.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="136">
   <si>
     <t xml:space="preserve">UserLogin</t>
   </si>
@@ -358,13 +358,10 @@
     <t xml:space="preserve">发送失败，请重试！</t>
   </si>
   <si>
-    <t xml:space="preserve">DownloadFiles</t>
+    <t xml:space="preserve">QueryHistory</t>
   </si>
   <si>
     <t xml:space="preserve">E00001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QueryHistory</t>
   </si>
   <si>
     <t xml:space="preserve">int IsFile</t>
@@ -421,6 +418,18 @@
   </si>
   <si>
     <t xml:space="preserve">Qvector&lt;int&gt;* FreeTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DownloadFiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">返回</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QbyteArray FileData</t>
   </si>
 </sst>
 </file>
@@ -430,7 +439,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Noto Sans CJK SC"/>
@@ -463,11 +472,6 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Noto Sans CJK SC"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -518,7 +522,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -543,16 +547,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -572,10 +572,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T327"/>
+  <dimension ref="A1:T325"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A69" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A76" activeCellId="0" sqref="A76"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A78" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B102" activeCellId="0" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2568,7 +2568,7 @@
       <c r="G72" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H72" s="0"/>
+      <c r="H72" s="4"/>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
@@ -2598,8 +2598,8 @@
       <c r="E73" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F73" s="0"/>
-      <c r="G73" s="0"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
@@ -2660,13 +2660,9 @@
       <c r="S75" s="2"/>
       <c r="T75" s="2"/>
     </row>
-    <row r="76" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>113</v>
-      </c>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -2687,9 +2683,11 @@
       <c r="T76" s="2"/>
     </row>
     <row r="77" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="2"/>
-      <c r="B77" s="7" t="s">
-        <v>108</v>
+      <c r="A77" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -2710,14 +2708,28 @@
       <c r="S77" s="2"/>
       <c r="T77" s="2"/>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
+    <row r="78" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
@@ -2732,18 +2744,18 @@
       <c r="S78" s="2"/>
       <c r="T78" s="2"/>
     </row>
-    <row r="79" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>113</v>
-      </c>
+    <row r="79" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
+      <c r="F79" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
@@ -2758,28 +2770,22 @@
       <c r="S79" s="2"/>
       <c r="T79" s="2"/>
     </row>
-    <row r="80" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>116</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
@@ -2794,18 +2800,18 @@
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
     </row>
-    <row r="81" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
+      <c r="B81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
-      <c r="F81" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>118</v>
-      </c>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
@@ -2821,20 +2827,20 @@
       <c r="T81" s="2"/>
     </row>
     <row r="82" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
       <c r="C82" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D82" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="D82" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
+      <c r="E82" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
@@ -2852,14 +2858,14 @@
     </row>
     <row r="83" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2"/>
-      <c r="B83" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
@@ -2876,21 +2882,13 @@
       <c r="S83" s="2"/>
       <c r="T83" s="2"/>
     </row>
-    <row r="84" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
-      <c r="C84" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D84" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>123</v>
-      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
@@ -2907,15 +2905,17 @@
       <c r="T84" s="2"/>
     </row>
     <row r="85" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="A85" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
@@ -2932,13 +2932,25 @@
       <c r="S85" s="2"/>
       <c r="T85" s="2"/>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
+    <row r="86" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
@@ -2956,15 +2968,17 @@
     </row>
     <row r="87" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
-        <v>124</v>
+        <v>6</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D87" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="C87" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
@@ -2983,24 +2997,16 @@
       <c r="T87" s="2"/>
     </row>
     <row r="88" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A88" s="2"/>
       <c r="B88" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>127</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
@@ -3016,19 +3022,11 @@
       <c r="S88" s="2"/>
       <c r="T88" s="2"/>
     </row>
-    <row r="89" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C89" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>111</v>
-      </c>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
@@ -3047,12 +3045,14 @@
       <c r="T89" s="2"/>
     </row>
     <row r="90" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="2"/>
+      <c r="A90" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="B90" s="2" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -3072,9 +3072,13 @@
       <c r="S90" s="2"/>
       <c r="T90" s="2"/>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
+    <row r="91" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -3096,14 +3100,12 @@
     </row>
     <row r="92" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
-        <v>128</v>
+        <v>6</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>126</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
@@ -3123,11 +3125,9 @@
       <c r="T92" s="2"/>
     </row>
     <row r="93" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A93" s="2"/>
       <c r="B93" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -3148,13 +3148,9 @@
       <c r="S93" s="2"/>
       <c r="T93" s="2"/>
     </row>
-    <row r="94" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>7</v>
-      </c>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -3175,9 +3171,11 @@
       <c r="T94" s="2"/>
     </row>
     <row r="95" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="2"/>
+      <c r="A95" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="B95" s="2" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -3198,9 +3196,13 @@
       <c r="S95" s="2"/>
       <c r="T95" s="2"/>
     </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
+    <row r="96" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -3222,7 +3224,7 @@
     </row>
     <row r="97" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
-        <v>130</v>
+        <v>6</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>131</v>
@@ -3246,13 +3248,9 @@
       <c r="S97" s="2"/>
       <c r="T97" s="2"/>
     </row>
-    <row r="98" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>44</v>
-      </c>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -3273,11 +3271,11 @@
       <c r="T98" s="2"/>
     </row>
     <row r="99" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="2" t="s">
-        <v>6</v>
+      <c r="A99" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -3298,9 +3296,13 @@
       <c r="S99" s="2"/>
       <c r="T99" s="2"/>
     </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
+    <row r="100" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -3320,9 +3322,13 @@
       <c r="S100" s="2"/>
       <c r="T100" s="2"/>
     </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
+    <row r="101" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -8270,50 +8276,6 @@
       <c r="S325" s="2"/>
       <c r="T325" s="2"/>
     </row>
-    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="2"/>
-      <c r="B326" s="2"/>
-      <c r="C326" s="2"/>
-      <c r="D326" s="2"/>
-      <c r="E326" s="2"/>
-      <c r="F326" s="2"/>
-      <c r="G326" s="2"/>
-      <c r="H326" s="2"/>
-      <c r="I326" s="2"/>
-      <c r="J326" s="2"/>
-      <c r="K326" s="2"/>
-      <c r="L326" s="2"/>
-      <c r="M326" s="2"/>
-      <c r="N326" s="2"/>
-      <c r="O326" s="2"/>
-      <c r="P326" s="2"/>
-      <c r="Q326" s="2"/>
-      <c r="R326" s="2"/>
-      <c r="S326" s="2"/>
-      <c r="T326" s="2"/>
-    </row>
-    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="2"/>
-      <c r="B327" s="2"/>
-      <c r="C327" s="2"/>
-      <c r="D327" s="2"/>
-      <c r="E327" s="2"/>
-      <c r="F327" s="2"/>
-      <c r="G327" s="2"/>
-      <c r="H327" s="2"/>
-      <c r="I327" s="2"/>
-      <c r="J327" s="2"/>
-      <c r="K327" s="2"/>
-      <c r="L327" s="2"/>
-      <c r="M327" s="2"/>
-      <c r="N327" s="2"/>
-      <c r="O327" s="2"/>
-      <c r="P327" s="2"/>
-      <c r="Q327" s="2"/>
-      <c r="R327" s="2"/>
-      <c r="S327" s="2"/>
-      <c r="T327" s="2"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G71:H71"/>
